--- a/wp5/WP5_Colleges Social Private Returns.xlsx
+++ b/wp5/WP5_Colleges Social Private Returns.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Country\Russia\Data\SEASHELL\SEABYTE\edreru\wp5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A38FDF-D73B-421D-9F77-DDC651DE8572}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC70F4-56CF-498A-B9B3-E951459C7455}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Table3[#All]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet 1'!$A$2:$J$1096</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sheet 1'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4035,7 +4035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -44581,7 +44581,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+    <oddFooter xml:space="preserve">&amp;C&amp;P+92 </oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
